--- a/002-Diario y Diagrama de Gantt/Diagrama de Gantt.xlsx
+++ b/002-Diario y Diagrama de Gantt/Diagrama de Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto Java\002-Diario y Diagrama de Gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Documents/Proyecto-Java/002-Diario y Diagrama de Gantt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5A424-501B-409D-9820-442A2B8FBDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DF14A-0F06-784B-9CA0-4190CC5DB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A48DE8D-51B0-47DC-94B8-DF26B192A063}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{3A48DE8D-51B0-47DC-94B8-DF26B192A063}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -467,22 +467,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1E5F0F-7460-47B3-9BE9-B70E9F69C88C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -516,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4">
-        <v>44627</v>
+        <v>44652</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -532,10 +532,10 @@
         <v>43.78</v>
       </c>
       <c r="H2" s="4">
-        <v>44627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7">
-        <v>44628</v>
+        <v>44653</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>87.56</v>
       </c>
       <c r="H3" s="7">
-        <v>44628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -589,7 +589,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -616,7 +616,7 @@
         <v>44628</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -626,7 +626,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -636,7 +636,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -646,7 +646,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -656,7 +656,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -666,7 +666,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -676,7 +676,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -686,7 +686,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -696,7 +696,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -706,7 +706,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -716,7 +716,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -726,7 +726,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -736,7 +736,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -746,7 +746,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -756,7 +756,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>

--- a/002-Diario y Diagrama de Gantt/Diagrama de Gantt.xlsx
+++ b/002-Diario y Diagrama de Gantt/Diagrama de Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Documents/Proyecto-Java/002-Diario y Diagrama de Gantt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto Java\002-Diario y Diagrama de Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DF14A-0F06-784B-9CA0-4190CC5DB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06875DF-786F-4BC0-A85A-5DD7BBB36F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{3A48DE8D-51B0-47DC-94B8-DF26B192A063}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A48DE8D-51B0-47DC-94B8-DF26B192A063}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -468,21 +468,21 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -535,7 +535,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -562,7 +562,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>44629</v>
+        <v>44654</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -586,10 +586,10 @@
         <v>43.78</v>
       </c>
       <c r="H4" s="4">
-        <v>44629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>44654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -597,26 +597,26 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>44630</v>
+        <v>44655</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="6">
         <v>21.89</v>
       </c>
       <c r="G5" s="3">
         <f>PRODUCT(E5:F5)</f>
-        <v>218.9</v>
+        <v>197.01</v>
       </c>
       <c r="H5" s="7">
-        <v>44628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -626,7 +626,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -636,7 +636,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -646,7 +646,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -656,7 +656,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -666,7 +666,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -676,7 +676,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -686,7 +686,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -696,7 +696,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -706,7 +706,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -716,7 +716,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -726,7 +726,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -736,7 +736,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -746,7 +746,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -756,7 +756,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>

--- a/002-Diario y Diagrama de Gantt/Diagrama de Gantt.xlsx
+++ b/002-Diario y Diagrama de Gantt/Diagrama de Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto Java\002-Diario y Diagrama de Gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto-Java\002-Diario y Diagrama de Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06875DF-786F-4BC0-A85A-5DD7BBB36F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946E169E-DEBC-4168-9AF0-E0EAB49BFF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A48DE8D-51B0-47DC-94B8-DF26B192A063}"/>
+    <workbookView xWindow="-5985" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3A48DE8D-51B0-47DC-94B8-DF26B192A063}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Actividad</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Analisis</t>
   </si>
   <si>
-    <t>1. Crear indice y diagrama</t>
-  </si>
-  <si>
     <t>2. Analisis de objetivos</t>
   </si>
   <si>
@@ -75,11 +72,36 @@
   <si>
     <t>4. Estudio de viabilidad</t>
   </si>
+  <si>
+    <t>1. Indice e Introduccion</t>
+  </si>
+  <si>
+    <t>5. Analasis de requisitos</t>
+  </si>
+  <si>
+    <t>6. Diseño BBDD</t>
+  </si>
+  <si>
+    <t>Analisis/Desarrollo</t>
+  </si>
+  <si>
+    <t>7. Codificacion Java</t>
+  </si>
+  <si>
+    <t>8. Documentacion</t>
+  </si>
+  <si>
+    <t>9. Correcion y cierre</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="[$-C0A]d\-mmm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,12 +180,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,6 +196,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -195,6 +234,1045 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-US"/>
+              <a:t>Proyecto Fontaneria</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14368200665679653"/>
+          <c:y val="0.22783172936716245"/>
+          <c:w val="0.78972240921446824"/>
+          <c:h val="0.72124234470691162"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1. Indice e Introduccion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. Analisis de objetivos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. Estado del arte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. Estudio de viabilidad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. Analasis de requisitos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. Diseño BBDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. Codificacion Java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. Documentacion</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. Correcion y cierre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>[$-C0A]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9406-4197-9A3C-C208AE9B37DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1. Indice e Introduccion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. Analisis de objetivos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. Estado del arte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. Estudio de viabilidad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. Analasis de requisitos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. Diseño BBDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. Codificacion Java</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. Documentacion</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. Correcion y cierre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9406-4197-9A3C-C208AE9B37DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1107116864"/>
+        <c:axId val="1107116032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1107116864"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107116032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1107116032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44715"/>
+          <c:min val="44627"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="[$-C0A]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107116864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="8"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592668</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49817</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064AF6C3-6987-8188-37E5-F35298905AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,19 +1545,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1E5F0F-7460-47B3-9BE9-B70E9F69C88C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -509,265 +1587,362 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>44652</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="11">
+        <v>44627</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>21.89</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <f>PRODUCT(E2:F2)</f>
         <v>43.78</v>
       </c>
-      <c r="H2" s="4">
-        <v>44652</v>
+      <c r="H2" s="3">
+        <v>44627</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7">
-        <v>44653</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="12">
+        <v>44628</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="10">
         <v>21.89</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <f>PRODUCT(E3:F3)</f>
         <v>87.56</v>
       </c>
-      <c r="H3" s="7">
-        <v>44653</v>
+      <c r="H3" s="6">
+        <v>44629</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
-        <v>44654</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4" s="11">
+        <v>44630</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
         <v>21.89</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <f>PRODUCT(E4:F4)</f>
-        <v>43.78</v>
-      </c>
-      <c r="H4" s="4">
-        <v>44654</v>
+        <v>87.56</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44633</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
-        <v>44655</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C5" s="12">
+        <v>44634</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10">
         <v>21.89</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <f>PRODUCT(E5:F5)</f>
-        <v>197.01</v>
-      </c>
-      <c r="H5" s="7">
-        <v>44657</v>
+        <v>175.12</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44640</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11">
+        <v>44641</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>21.89</v>
+      </c>
+      <c r="G6" s="9">
+        <f>PRODUCT(E6:F6)</f>
+        <v>218.9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44645</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44648</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10">
+        <v>21.89</v>
+      </c>
+      <c r="G7" s="9">
+        <f>PRODUCT(E7:F7)</f>
+        <v>437.8</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44658</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44662</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2">
+        <v>52</v>
+      </c>
+      <c r="F8" s="9">
+        <v>21.89</v>
+      </c>
+      <c r="G8" s="9">
+        <f>PRODUCT(E8:F8)</f>
+        <v>1138.28</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44701</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44704</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10">
+        <v>21.89</v>
+      </c>
+      <c r="G9" s="9">
+        <f>PRODUCT(E9:F9)</f>
+        <v>218.9</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44708</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44711</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9">
+        <v>21.89</v>
+      </c>
+      <c r="G10" s="9">
+        <f>PRODUCT(E10:F10)</f>
+        <v>218.9</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44715</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="5">
+        <f>SUM(D2:D10)</f>
+        <v>89</v>
+      </c>
+      <c r="E11" s="5">
+        <f>SUM(E2:E10)</f>
+        <v>120</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9">
+        <f>SUM(G2:G10)</f>
+        <v>2626.8</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>